--- a/config_1.12/fish_3d_yutu_random_2.xlsx
+++ b/config_1.12/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -372,19 +372,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>175,176,177,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>177,178,</t>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1896,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="25">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="26">
         <v>2</v>
@@ -1920,7 +1920,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="25">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="26">
         <v>2</v>
@@ -1944,7 +1944,7 @@
         <v>46</v>
       </c>
       <c r="C19" s="25">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D19" s="26">
         <v>2</v>
@@ -1968,7 +1968,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="25">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="26">
         <v>2</v>
@@ -2179,8 +2179,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2265,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>54</v>
@@ -2282,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>55</v>
